--- a/designs/Neck/V01/_Neck BOM.xlsx
+++ b/designs/Neck/V01/_Neck BOM.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Neck Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Git Hub Estella\Design\Neck\V01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C8950532-C725-4937-A8F4-297269007F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{263AEF17-EE01-4D43-9D46-EA11D2A8DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="630" windowWidth="18000" windowHeight="9360" xr2:uid="{8A45266E-9FF9-4EB5-8E03-EC2BB987B9DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{8A45266E-9FF9-4EB5-8E03-EC2BB987B9DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Administrator - Personal View" guid="{260E5020-8094-43F4-93EA-A2390C76B486}" mergeInterval="0" personalView="1" xWindow="400" yWindow="42" windowWidth="1200" windowHeight="624" activeSheetId="1"/>
+    <customWorkbookView name="Administrator - Personal View" guid="{260E5020-8094-43F4-93EA-A2390C76B486}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>ITEM NO.</t>
   </si>
   <si>
-    <t>PART NUMBER</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>GE15ESouterpart</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -72,15 +66,9 @@
     <t>4</t>
   </si>
   <si>
-    <t>Roller</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>RollerHolder</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -96,29 +84,6 @@
     <t>8</t>
   </si>
   <si>
-    <r>
-      <t>SphereJointHolderLi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>nk</t>
-    </r>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -137,19 +102,49 @@
     <t>SphereJoint</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>GE15ESinnerpart</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>DRG Neck</t>
   </si>
   <si>
-    <t>MG945</t>
+    <t>SphereJointHolderLink</t>
+  </si>
+  <si>
+    <t>PART NUMBER in 3D Model</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Inner Structure Holder</t>
+  </si>
+  <si>
+    <t>Made by Brass</t>
+  </si>
+  <si>
+    <t>GE 15 ES - Radial spherical plain bearings</t>
+  </si>
+  <si>
+    <t>Standard Size</t>
+  </si>
+  <si>
+    <t>MG945 Servo Motor + Pan of Servo Bracket</t>
+  </si>
+  <si>
+    <t>Roller + RollerHolder</t>
+  </si>
+  <si>
+    <t>GE15ESouterpart + GE15ESinnerpart</t>
+  </si>
+  <si>
+    <t>Thrust Roller Bearing NTB 5578</t>
+  </si>
+  <si>
+    <t>Servo Horn</t>
+  </si>
+  <si>
+    <t>Sphere joint</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -171,9 +166,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="SWGDT"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,13 +222,18 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1ACF4937-C376-4E1C-A24B-717F125431FF}" diskRevisions="1" revisionId="1" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{63804EBA-DA0E-4CFD-AC79-1D179F2FAF4E}" diskRevisions="1" revisionId="33" version="3">
   <header guid="{E9ECE57F-E200-4CB4-9049-08B368A4199B}" dateTime="2025-09-25T20:32:37" maxSheetId="2" userName="Administrator" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
   <header guid="{1ACF4937-C376-4E1C-A24B-717F125431FF}" dateTime="2025-09-25T20:37:41" maxSheetId="2" userName="Administrator" r:id="rId2" minRId="1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{63804EBA-DA0E-4CFD-AC79-1D179F2FAF4E}" dateTime="2025-09-26T09:18:12" maxSheetId="2" userName="Administrator" r:id="rId3" minRId="2" maxRId="33">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -253,6 +254,437 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" sId="1">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <r>
+          <t>SphereJointHolderLi</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="SWGDT"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t>nk</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>SphereJointHolderLink</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="3" sId="1" ref="B1:B1048576" action="insertCol"/>
+  <rcc rId="4" sId="1">
+    <oc r="C1" t="inlineStr">
+      <is>
+        <t>PART NUMBER</t>
+      </is>
+    </oc>
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>PART NUMBER in 3D Model</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Part</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>Inner Structure Holder</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Made by Brass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>GE 15 ES - Radial spherical plain bearings</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <oc r="C13" t="inlineStr">
+      <is>
+        <t>GE15ESinnerpart</t>
+      </is>
+    </oc>
+    <nc r="C13"/>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <oc r="E13">
+      <v>1</v>
+    </oc>
+    <nc r="E13"/>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <oc r="D4" t="inlineStr">
+      <is>
+        <t>MG945</t>
+      </is>
+    </oc>
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>Standard Size</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>MG945 Servo Motor + Pan of Servo Bracket</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <oc r="C6" t="inlineStr">
+      <is>
+        <t>RollerHolder</t>
+      </is>
+    </oc>
+    <nc r="C6"/>
+  </rcc>
+  <rcc rId="14" sId="1">
+    <oc r="C5" t="inlineStr">
+      <is>
+        <t>Roller</t>
+      </is>
+    </oc>
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>Roller + RollerHolder</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="1">
+    <oc r="C3" t="inlineStr">
+      <is>
+        <t>GE15ESouterpart</t>
+      </is>
+    </oc>
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>GE15ESouterpart + GE15ESinnerpart</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="1">
+    <oc r="E6">
+      <v>1</v>
+    </oc>
+    <nc r="E6"/>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>Thrust Roller Bearing NTB 5578</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="18" sId="1" ref="A6:XFD6" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="B6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E6" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="19" sId="1" ref="A12:XFD12" action="deleteRow">
+    <rfmt sheetId="1" xfDxf="1" sqref="A12:XFD12" start="0" length="0"/>
+    <rcc rId="0" sId="1" dxf="1">
+      <nc r="A12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </nc>
+      <ndxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </ndxf>
+    </rcc>
+    <rfmt sheetId="1" sqref="B12" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <numFmt numFmtId="30" formatCode="@"/>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="C12" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="left" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="D12" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="1" sqref="E12" start="0" length="0">
+      <dxf>
+        <font>
+          <sz val="13"/>
+          <color theme="1"/>
+          <name val="Century Gothic"/>
+          <family val="2"/>
+          <scheme val="none"/>
+        </font>
+        <alignment horizontal="center" vertical="center" wrapText="1"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rcc rId="20" sId="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Servo Horn</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Servo Horn</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="1">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>DS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>Shoulder</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>Link</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>Sphere joint</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>DRG Neck</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <oc r="A6" t="inlineStr">
+      <is>
+        <t>6</t>
+      </is>
+    </oc>
+    <nc r="A6" t="inlineStr">
+      <is>
+        <t>5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1">
+    <oc r="A7" t="inlineStr">
+      <is>
+        <t>7</t>
+      </is>
+    </oc>
+    <nc r="A7" t="inlineStr">
+      <is>
+        <t>6</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="1">
+    <oc r="A8" t="inlineStr">
+      <is>
+        <t>8</t>
+      </is>
+    </oc>
+    <nc r="A8" t="inlineStr">
+      <is>
+        <t>7</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="1">
+    <oc r="A9" t="inlineStr">
+      <is>
+        <t>9</t>
+      </is>
+    </oc>
+    <nc r="A9" t="inlineStr">
+      <is>
+        <t>8</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="1">
+    <oc r="A10" t="inlineStr">
+      <is>
+        <t>10</t>
+      </is>
+    </oc>
+    <nc r="A10" t="inlineStr">
+      <is>
+        <t>9</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="1">
+    <oc r="A11" t="inlineStr">
+      <is>
+        <t>11</t>
+      </is>
+    </oc>
+    <nc r="A11" t="inlineStr">
+      <is>
+        <t>10</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="1">
+    <oc r="A12" t="inlineStr">
+      <is>
+        <t>13</t>
+      </is>
+    </oc>
+    <nc r="A12" t="inlineStr">
+      <is>
+        <t>11</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{260E5020-8094-43F4-93EA-A2390C76B486}" action="delete"/>
+  <rcv guid="{260E5020-8094-43F4-93EA-A2390C76B486}" action="add"/>
 </revisions>
 </file>
 
@@ -557,198 +989,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD895688-D109-48A2-BC53-B7ADCF68380F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{260E5020-8094-43F4-93EA-A2390C76B486}">
+      <selection activeCell="J8" sqref="J8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>